--- a/あおいちゃん/project/data/Stage00.xlsx
+++ b/あおいちゃん/project/data/Stage00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\sdt\2025\TECH1年\あおいちゃん\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6EBB4-DDC6-482C-9452-0436723BE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6FBE8-68A3-4DB3-9C96-8733C2447005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="840" windowWidth="18240" windowHeight="14640" xr2:uid="{6B3222BC-CC3D-46EF-BC12-5566061B4283}"/>
+    <workbookView xWindow="8100" yWindow="855" windowWidth="12060" windowHeight="14310" xr2:uid="{6B3222BC-CC3D-46EF-BC12-5566061B4283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,7 +386,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -477,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -674,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
